--- a/xlsx/萨达姆·侯赛因_intext.xlsx
+++ b/xlsx/萨达姆·侯赛因_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="274">
   <si>
     <t>萨达姆·侯赛因</t>
   </si>
@@ -29,7 +29,7 @@
     <t>伊拉克总统</t>
   </si>
   <si>
-    <t>政策_政策_美國_萨达姆·侯赛因</t>
+    <t>政策_政策_美国_萨达姆·侯赛因</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E9%98%BF%E6%95%A6%C2%B7%E5%93%88%E9%A9%AC%E8%BF%AA</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>伊拉克王國</t>
+    <t>伊拉克王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E6%8B%89%E8%B5%AB%E4%B8%81%E7%9C%81</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E8%A3%81%E8%80%85</t>
   </si>
   <si>
-    <t>獨裁者</t>
+    <t>独裁者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E4%B9%A6%E8%AE%B0</t>
@@ -227,25 +227,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%BB%8D</t>
   </si>
   <si>
-    <t>美軍</t>
+    <t>美军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%9E%E5%88%91</t>
   </si>
   <si>
-    <t>絞刑</t>
+    <t>绞刑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A7%8D%E6%B1%BA</t>
   </si>
   <si>
-    <t>槍決</t>
+    <t>枪决</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E5%85%8B%E9%87%8C%E7%89%B9</t>
@@ -263,15 +263,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%91%E9%AC%B1%E7%97%87</t>
   </si>
   <si>
-    <t>抑鬱症</t>
+    <t>抑郁症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%9C%E5%B0%BC%E6%B4%BE</t>
   </si>
   <si>
-    <t>遜尼派</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E4%B8%BB%E4%B9%89%E8%80%85</t>
   </si>
   <si>
@@ -281,15 +278,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%BE%A9%E8%88%88%E7%A4%BE%E6%9C%83%E9%BB%A8</t>
   </si>
   <si>
-    <t>阿拉伯復興社會黨</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%8F%98</t>
   </si>
   <si>
@@ -317,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E7%BE%85</t>
   </si>
   <si>
-    <t>開羅</t>
+    <t>开罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E7%BD%97%E5%A4%A7%E5%AD%A6</t>
@@ -341,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E9%BB%A8</t>
   </si>
   <si>
-    <t>共產黨</t>
+    <t>共产党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8D%9C%E6%9D%9C%E5%A1%9E%E6%8B%89%E5%A7%86%C2%B7%E9%98%BF%E9%87%8C%E5%A4%AB</t>
@@ -377,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%80%E8%91%89%E6%B4%BE</t>
   </si>
   <si>
-    <t>什葉派</t>
+    <t>什叶派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E4%BA%BA</t>
@@ -389,9 +383,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E7%88%BE%E5%BE%B7%E4%BA%BA</t>
   </si>
   <si>
-    <t>庫爾德人</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%A4%E4%BC%8A%E6%88%98%E4%BA%89</t>
   </si>
   <si>
@@ -413,9 +404,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
   </si>
   <si>
@@ -425,9 +413,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
   </si>
   <si>
-    <t>英国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
   </si>
   <si>
@@ -497,7 +482,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%88%B6%E8%A3%81</t>
   </si>
   <si>
-    <t>經濟制裁</t>
+    <t>经济制裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%BC%A0%E9%A3%8E%E6%9A%B4%E8%A1%8C%E5%8A%A8</t>
@@ -509,7 +494,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%97%A6</t>
   </si>
   <si>
-    <t>約旦</t>
+    <t>约旦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E4%BF%98</t>
@@ -521,9 +506,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%86%9B</t>
   </si>
   <si>
-    <t>美军</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E8%B4%BE%E5%B0%94%E6%9D%91</t>
   </si>
   <si>
@@ -587,9 +569,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BB%9E%E5%88%91</t>
   </si>
   <si>
-    <t>绞刑</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0</t>
   </si>
   <si>
@@ -635,7 +614,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%89%B9%E8%B5%A6%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際特赦組織</t>
+    <t>国际特赦组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%B9%B3</t>
@@ -653,7 +632,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國總統</t>
+    <t>美国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E6%B2%83%E5%85%8B%C2%B7%E5%B8%83%E4%BB%80</t>
@@ -671,7 +650,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E5%88%91%E5%AD%98%E5%BB%A2%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>死刑存廢問題</t>
+    <t>死刑存废问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E5%88%91</t>
@@ -695,7 +674,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -731,13 +710,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E4%BB%A3%C2%B7%E4%BE%AF%E8%B3%BD%E5%9B%A0</t>
   </si>
   <si>
-    <t>烏代·侯賽因</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%87%8C%C2%B7%E5%93%88%E6%A1%91%C2%B7%E9%A6%AC%E5%90%89%E5%BE%B7</t>
   </si>
   <si>
-    <t>阿里·哈桑·馬吉德</t>
+    <t>阿里·哈桑·马吉德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BC%E5%8F%91%E6%8B%89%E5%BA%95%E6%B2%B3</t>
@@ -749,9 +725,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>紐約時報</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
   </si>
   <si>
@@ -779,7 +752,7 @@
     <t>https://zh.wikinews.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E5%89%8D%E7%B8%BD%E7%B5%B1%E4%BE%AF%E8%B3%BD%E5%9B%A0%E8%A2%AB%E5%88%A4%E6%AD%BB%E5%88%91</t>
   </si>
   <si>
-    <t>n-伊拉克前總統侯賽因被判死刑</t>
+    <t>n-伊拉克前总统侯赛因被判死刑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E4%BA%9A%E5%BE%B7%C2%B7%E9%98%BF%E6%8B%89%E7%BB%B4</t>
@@ -791,7 +764,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -809,7 +782,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -827,7 +800,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -839,13 +812,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2481,7 +2454,7 @@
         <v>83</v>
       </c>
       <c r="F44" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -2507,10 +2480,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" t="s">
         <v>85</v>
-      </c>
-      <c r="F45" t="s">
-        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2536,10 +2509,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" t="s">
         <v>87</v>
-      </c>
-      <c r="F46" t="s">
-        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>33</v>
@@ -2565,10 +2538,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F47" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -2594,10 +2567,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G48" t="n">
         <v>5</v>
@@ -2623,10 +2596,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2652,10 +2625,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F50" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -2681,10 +2654,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G51" t="n">
         <v>4</v>
@@ -2710,10 +2683,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F52" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G52" t="n">
         <v>3</v>
@@ -2739,10 +2712,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F53" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -2768,10 +2741,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F54" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G54" t="n">
         <v>3</v>
@@ -2797,10 +2770,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -2826,10 +2799,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F56" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2855,10 +2828,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F57" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G57" t="n">
         <v>4</v>
@@ -2884,10 +2857,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F58" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -2913,10 +2886,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F59" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G59" t="n">
         <v>7</v>
@@ -2942,10 +2915,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F60" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G60" t="n">
         <v>14</v>
@@ -3058,10 +3031,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F64" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3087,10 +3060,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F65" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3116,10 +3089,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F66" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -3145,10 +3118,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F67" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3174,10 +3147,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F68" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G68" t="n">
         <v>4</v>
@@ -3203,10 +3176,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F69" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G69" t="n">
         <v>28</v>
@@ -3232,10 +3205,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F70" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3261,10 +3234,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F71" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="G71" t="n">
         <v>8</v>
@@ -3290,10 +3263,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F72" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3319,10 +3292,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F73" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="G73" t="n">
         <v>4</v>
@@ -3348,10 +3321,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F74" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -3377,10 +3350,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F75" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -3406,10 +3379,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F76" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G76" t="n">
         <v>3</v>
@@ -3435,10 +3408,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F77" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3464,10 +3437,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F78" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3493,10 +3466,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F79" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3522,10 +3495,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F80" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3551,10 +3524,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F81" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -3580,10 +3553,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F82" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G82" t="n">
         <v>6</v>
@@ -3609,10 +3582,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F83" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G83" t="n">
         <v>8</v>
@@ -3638,10 +3611,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F84" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -3667,10 +3640,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F85" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3696,10 +3669,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F86" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3725,10 +3698,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F87" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G87" t="n">
         <v>3</v>
@@ -3754,10 +3727,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F88" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3783,10 +3756,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F89" t="s">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="G89" t="n">
         <v>5</v>
@@ -3812,10 +3785,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F90" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G90" t="n">
         <v>13</v>
@@ -3841,10 +3814,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F91" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3870,10 +3843,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F92" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3899,10 +3872,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F93" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3928,10 +3901,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F94" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3957,10 +3930,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F95" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3986,10 +3959,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F96" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G96" t="n">
         <v>8</v>
@@ -4015,10 +3988,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F97" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4044,10 +4017,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F98" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4073,10 +4046,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F99" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4102,10 +4075,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F100" t="s">
-        <v>190</v>
+        <v>74</v>
       </c>
       <c r="G100" t="n">
         <v>8</v>
@@ -4131,10 +4104,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F101" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G101" t="n">
         <v>5</v>
@@ -4160,10 +4133,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="F102" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -4189,10 +4162,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F103" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -4218,10 +4191,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F104" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4247,10 +4220,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F105" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G105" t="n">
         <v>6</v>
@@ -4276,10 +4249,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F106" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4305,10 +4278,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F107" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4334,10 +4307,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F108" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G108" t="n">
         <v>3</v>
@@ -4363,10 +4336,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F109" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4392,10 +4365,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F110" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4421,10 +4394,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F111" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4450,10 +4423,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F112" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G112" t="n">
         <v>3</v>
@@ -4479,10 +4452,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F113" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4508,10 +4481,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F114" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="G114" t="n">
         <v>3</v>
@@ -4537,10 +4510,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F115" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4566,10 +4539,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F116" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G116" t="n">
         <v>11</v>
@@ -4595,10 +4568,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F117" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4624,10 +4597,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F118" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4653,10 +4626,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F119" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -4682,10 +4655,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F120" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -4711,10 +4684,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F121" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4740,10 +4713,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F122" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4769,10 +4742,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F123" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4798,10 +4771,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F124" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4827,10 +4800,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F125" t="s">
-        <v>238</v>
+        <v>50</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4885,10 +4858,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="F127" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4914,10 +4887,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="F128" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4943,10 +4916,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="F129" t="s">
-        <v>244</v>
+        <v>141</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -4972,10 +4945,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="F130" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5001,10 +4974,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F131" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5030,10 +5003,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F132" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5059,10 +5032,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="F133" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5088,10 +5061,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="F134" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5146,10 +5119,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F136" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5204,10 +5177,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F138" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="G138" t="n">
         <v>3</v>
@@ -5233,10 +5206,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F139" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5262,10 +5235,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="F140" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5291,10 +5264,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="F141" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5320,10 +5293,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F142" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5349,10 +5322,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="F143" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5378,10 +5351,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F144" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5407,10 +5380,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F145" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5436,10 +5409,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="F146" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5465,10 +5438,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="F147" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5494,10 +5467,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="F148" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5523,10 +5496,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="F149" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5552,10 +5525,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="F150" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
